--- a/USMA_Coop_Exercise_Khoa Pham.xlsx
+++ b/USMA_Coop_Exercise_Khoa Pham.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koapam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koapam/Library/CloudStorage/GoogleDrive-kdpham1002@gmail.com/My Drive/Coding Workspace/GitHub_Repos/Vertex Pharma OA_Market Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20019E8-A724-F142-A595-EBF1384604D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DB883-D659-5540-9468-27BA32EDBB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{67DDBEDA-7CFF-4B49-90B7-9B1524575871}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="36000" windowHeight="21100" xr2:uid="{67DDBEDA-7CFF-4B49-90B7-9B1524575871}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId4"/>
+    <pivotCache cacheId="34" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
   <si>
     <t>Brand</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Breast cancer, lung cancer, leukemia, etc.</t>
+  </si>
+  <si>
+    <t>Unit_Price</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,35 +506,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,13 +521,9 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,9 +531,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -585,12 +557,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="433">
+  <dxfs count="212">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -709,6 +767,735 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -742,1956 +1529,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFA292"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAA9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2705,6 +1542,115 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2855,8 +1801,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2940,8 +1885,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3025,8 +1969,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3071,6 +2014,1812 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3213,6 +3962,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3255,6 +4009,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3297,6 +4056,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3339,6 +4103,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3381,6 +4150,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3423,6 +4197,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3468,6 +4247,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3513,6 +4297,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3558,6 +4347,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3603,6 +4397,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3648,6 +4447,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3693,6 +4497,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3741,6 +4550,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3789,6 +4603,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4005,6 +4824,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4047,6 +4871,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4089,6 +4918,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4131,6 +4965,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4173,6 +5012,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4215,6 +5059,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4260,6 +5109,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4305,6 +5159,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4350,6 +5209,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4395,6 +5259,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4440,6 +5309,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4485,6 +5359,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4533,6 +5412,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -4581,6 +5465,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4797,6 +5686,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4839,6 +5733,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4881,6 +5780,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4923,6 +5827,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4965,6 +5874,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5007,6 +5921,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5052,6 +5971,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5097,6 +6021,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -5142,6 +6071,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -5187,6 +6121,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -5232,6 +6171,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5277,6 +6221,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -5325,6 +6274,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -5373,6 +6327,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-E39D-B24C-A433-CB96C71DB515}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5531,6 +6490,798 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7E33-F14E-80A2-A95E322BC46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit_Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Empigrevir</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Janogrevir</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abarcafil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fortinib</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ventrofil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alistuzumab</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Treatinib</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pluvitinib</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Krastuzumab</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bertigrevir</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Astoridone</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Vizidone</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Orestidone</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sparitonin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000054-E39D-B24C-A433-CB96C71DB515}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6200,7 +7951,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1586540</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>1197</xdr:rowOff>
@@ -6230,19 +7981,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="Therapeutic Area 3">
@@ -6265,7 +8016,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6308,19 +8059,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="22" name="Region 3">
@@ -6343,7 +8094,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6386,19 +8137,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1557787</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="24" name="Manufacturer 2">
@@ -6421,7 +8172,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6464,7 +8215,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>694906</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>11981</xdr:rowOff>
@@ -6519,13 +8270,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6941,13 +8692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -7601,8 +9352,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40C39389-8C62-E849-AE7E-0DF43E880D2F}" name="PivotTable15" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22" rowHeaderCaption="Brand">
-  <location ref="B1:E16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40C39389-8C62-E849-AE7E-0DF43E880D2F}" name="PivotTable15" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22" rowHeaderCaption="Brand">
+  <location ref="B1:F16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="15">
@@ -7664,7 +9415,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField dataField="1" numFmtId="166" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -7720,7 +9471,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -7730,61 +9481,62 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Market Share" fld="6" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
     <dataField name="Units Sold" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
     <dataField name="Revenue" fld="6" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Unit_Price" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="25">
-    <format dxfId="408">
+  <formats count="28">
+    <format dxfId="211">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="409">
+    <format dxfId="210">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="410">
+    <format dxfId="209">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="411">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="412">
+    <format dxfId="207">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="413">
+    <format dxfId="206">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="414">
+    <format dxfId="205">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="415">
+    <format dxfId="204">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="416">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="417">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="418">
+    <format dxfId="201">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="419">
+    <format dxfId="200">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="420">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="421">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="5">
@@ -7797,10 +9549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="422">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="423">
+    <format dxfId="198">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7809,7 +9558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="424">
+    <format dxfId="197">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -7820,7 +9569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="425">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7829,7 +9578,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="426">
+    <format dxfId="195">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7843,7 +9592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="427">
+    <format dxfId="194">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7857,7 +9606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="428">
+    <format dxfId="193">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7871,7 +9620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="429">
+    <format dxfId="192">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7885,7 +9634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="405">
+    <format dxfId="191">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7899,7 +9648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="403">
+    <format dxfId="190">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7913,7 +9662,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="189">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7927,8 +9676,39 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="46">
     <chartFormat chart="20" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7952,6 +9732,519 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -8029,7 +10322,6 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Manufacturer 1" xr10:uid="{FF7DADC2-CECF-2149-8078-6F06E25CD3F4}" cache="Slicer_Manufacturer" caption="Manufacturer" rowHeight="230716"/>
   <slicer name="Manufacturer 2" xr10:uid="{57142D5E-6C0E-044C-AA55-3E7FC6CA540C}" cache="Slicer_Manufacturer" caption="Manufacturer" rowHeight="230716"/>
   <slicer name="Therapeutic Area 3" xr10:uid="{ED4DA0AD-CBE7-2D41-84AF-F587185810CC}" cache="Slicer_Therapeutic_Area1" caption="Therapeutic Area" rowHeight="230716"/>
   <slicer name="Region 3" xr10:uid="{CB2C5292-E1C6-354F-870E-FF2781F5673B}" cache="Slicer_Region1" caption="Region" rowHeight="230716"/>
@@ -8037,14 +10329,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{39A9AB43-ED37-1E43-8FA3-4594B7D21CB6}" name="Table2" displayName="Table2" ref="J1:K4" totalsRowShown="0" headerRowDxfId="432" dataDxfId="431">
-  <autoFilter ref="J1:K4" xr:uid="{39A9AB43-ED37-1E43-8FA3-4594B7D21CB6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{39A9AB43-ED37-1E43-8FA3-4594B7D21CB6}" name="Table2" displayName="Table2" ref="K1:L4" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+  <autoFilter ref="K1:L4" xr:uid="{39A9AB43-ED37-1E43-8FA3-4594B7D21CB6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{08528650-7290-5E4C-B727-D50758C81599}" name="Therapeutic Area" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{77712560-FB9E-E344-8748-4A8DBBC0BCE2}" name="Target Conditions" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{08528650-7290-5E4C-B727-D50758C81599}" name="Therapeutic Area" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{77712560-FB9E-E344-8748-4A8DBBC0BCE2}" name="Target Conditions" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8370,339 +10662,380 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
-    <col min="7" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="28">
         <v>0.20102548555870584</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="29">
         <v>117037</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="30">
         <v>46814800</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="J2" s="46" t="s">
+      <c r="F2" s="45">
+        <v>400</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="K2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="28">
         <v>0.16760117901961707</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="29">
         <v>111517</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="30">
         <v>39030950</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="J3" s="46" t="s">
+      <c r="F3" s="45">
+        <v>350</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="K3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="28">
         <v>0.11850501927119737</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="27">
         <v>106144</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="30">
         <v>27597440</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="J4" s="46" t="s">
+      <c r="F4" s="45">
+        <v>260</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="23">
         <v>9.1343639860756567E-2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="27">
         <v>16684</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="22">
         <v>21272100</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="45">
+        <v>1275</v>
+      </c>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="23">
         <v>8.5625242278826744E-2</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="29">
         <v>132936</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="22">
         <v>19940400</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="45">
+        <v>150</v>
+      </c>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="23">
         <v>8.5568560707841176E-2</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="27">
         <v>20976</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="22">
         <v>19927200</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="45">
+        <v>950</v>
+      </c>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="23">
         <v>8.3318474102050663E-2</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="27">
         <v>11584</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="22">
         <v>19403200</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="45">
+        <v>1675</v>
+      </c>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>5.9938184882187676E-2</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="27">
         <v>17448</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="22">
         <v>13958400</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="45">
+        <v>800</v>
+      </c>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>4.6455270886917366E-2</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="27">
         <v>15455</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="22">
         <v>10818500</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="45">
+        <v>700</v>
+      </c>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="23">
         <v>3.659549014368671E-2</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="27">
         <v>89709</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="22">
         <v>8522355</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="45">
+        <v>95</v>
+      </c>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="23">
         <v>7.9654783468347482E-3</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="33">
         <v>10600</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="22">
         <v>1855000</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="K12" s="1"/>
+      <c r="F12" s="45">
+        <v>175</v>
+      </c>
+      <c r="G12" s="44"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="32">
         <v>7.0639407840757422E-3</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="33">
         <v>10967</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="34">
         <v>1645050</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="F13" s="45">
+        <v>150</v>
+      </c>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="32">
         <v>5.4543129898380035E-3</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>12702</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="34">
         <v>1270200</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="45">
+        <v>100</v>
+      </c>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="32">
         <v>3.5397211674643059E-3</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="33">
         <v>9698</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="34">
         <v>824330</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="F15" s="45">
+        <v>85</v>
+      </c>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>1</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="27">
         <v>683457</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="22">
         <v>232879925</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="45">
+        <v>511.78571428571428</v>
+      </c>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -8730,7 +11063,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8786,7 +11119,7 @@
         <v>260</v>
       </c>
       <c r="G2" s="18">
-        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
+        <f>E2*F2</f>
         <v>7863700</v>
       </c>
     </row>
@@ -8810,7 +11143,7 @@
         <v>260</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G33" si="0">E3*F3</f>
         <v>6066580</v>
       </c>
     </row>
@@ -9554,7 +11887,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
+        <f t="shared" ref="G34:G57" si="1">E34*F34</f>
         <v>330000</v>
       </c>
     </row>
@@ -10151,37 +12484,37 @@
       <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
